--- a/Technology/Software/Verisk Analytics.xlsx
+++ b/Technology/Software/Verisk Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F6FDE-955E-2542-A6D4-7A40874EF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125B6B7-08F5-1444-AF35-148295F0C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,6 +1070,12 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,12 +1083,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,13 +2530,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2552,14 +2554,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2569,6 +2571,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2696,9 +2700,9 @@
     <v>Powered by Refinitiv</v>
     <v>249.26</v>
     <v>162.94</v>
-    <v>0.84889999999999999</v>
-    <v>-3.68</v>
-    <v>-1.5454000000000001E-2</v>
+    <v>0.85270000000000001</v>
+    <v>-1.44</v>
+    <v>-6.3119999999999999E-3</v>
     <v>USD</v>
     <v>Verisk Analytics, Inc. is a data analytics provider that serves insurance industry. The Company offers predictive analytics and decision support solutions to customers in rating, underwriting, claims, catastrophe and weather risk, global risk analytics, and many other fields. The Company’s Insurance segment primarily serves its property and casualty (P&amp;C) insurance customers and focuses on the prediction of loss, the selection and pricing of risk, and compliance with their reporting requirements in each United States state in which the Company operate. The Company also develop and utilize machine learned and artificially intelligent models to forecast scenarios and produce both standard and customized analytics that help its customers better manage their businesses, including detecting fraud before and after a loss event and quantifying losses. It also helps businesses and governments better anticipate and manage climate and weather-related risks.</v>
     <v>7000</v>
@@ -2706,24 +2710,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>545 Washington Blvd, JERSEY CITY, NJ, 07310-1607 US</v>
-    <v>239.53</v>
+    <v>231.72499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.902685613284</v>
+    <v>45225.986526689063</v>
     <v>0</v>
-    <v>233.92</v>
-    <v>34001603595</v>
+    <v>225.84</v>
+    <v>32876193299</v>
     <v>VERISK ANALYTICS, INC.</v>
     <v>VERISK ANALYTICS, INC.</v>
-    <v>238.21</v>
-    <v>48.594499999999996</v>
-    <v>238.13</v>
-    <v>234.45</v>
+    <v>227.89</v>
+    <v>46.9861</v>
+    <v>228.13</v>
+    <v>226.69</v>
     <v>145027100</v>
     <v>VRSK</v>
     <v>VERISK ANALYTICS, INC. (XNAS:VRSK)</v>
-    <v>901393</v>
-    <v>869825</v>
+    <v>909020</v>
+    <v>940758</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2876,10 +2880,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -4402,15 +4406,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y102/Q3</f>
-        <v>13.616981816179415</v>
+        <v>13.166276851822186</v>
       </c>
       <c r="Y16" s="30">
         <f>Y102/Q28</f>
-        <v>35.644830270468603</v>
+        <v>34.465031239123597</v>
       </c>
       <c r="Z16" s="31">
         <f>Y102/Q107</f>
-        <v>43.352803257682012</v>
+        <v>41.917880019125334</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4604,15 +4608,15 @@
       </c>
       <c r="X19" s="30">
         <f>Y102/R3</f>
-        <v>12.777754075535514</v>
+        <v>12.354826493423525</v>
       </c>
       <c r="Y19" s="30">
         <f>Y102/R28</f>
-        <v>40.526345166865319</v>
+        <v>39.184974134684147</v>
       </c>
       <c r="Z19" s="34">
         <f>Y102/R107</f>
-        <v>35.10024114276866</v>
+        <v>33.938467326313614</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4848,11 +4852,11 @@
       </c>
       <c r="Y22" s="44">
         <f>(-1*Q98)/Y102</f>
-        <v>5.7409057033034911E-3</v>
+        <v>5.9374270684172375E-3</v>
       </c>
       <c r="Z22" s="37">
         <f>R107/Y102</f>
-        <v>2.8489832760195146E-2</v>
+        <v>2.946509016995788E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8285,10 +8289,10 @@
       <c r="U84" s="49"/>
       <c r="V84" s="49"/>
       <c r="W84" s="49"/>
-      <c r="X84" s="77" t="s">
+      <c r="X84" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="Y84" s="78"/>
+      <c r="Y84" s="75"/>
     </row>
     <row r="85" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8348,10 +8352,10 @@
       <c r="U85" s="49"/>
       <c r="V85" s="49"/>
       <c r="W85" s="49"/>
-      <c r="X85" s="75" t="s">
+      <c r="X85" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="Y85" s="75"/>
+      <c r="Y85" s="77"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8955,10 +8959,10 @@
       <c r="U94" s="49"/>
       <c r="V94" s="49"/>
       <c r="W94" s="49"/>
-      <c r="X94" s="75" t="s">
+      <c r="X94" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="Y94" s="75"/>
+      <c r="Y94" s="77"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -9023,7 +9027,7 @@
       </c>
       <c r="Y95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9089,7 +9093,7 @@
       </c>
       <c r="Y96" s="52" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>0.84889999999999999</v>
+        <v>0.85270000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9220,7 +9224,7 @@
       </c>
       <c r="Y98" s="51">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>7.8714522000000009E-2</v>
+        <v>7.8922568999999998E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9281,10 +9285,10 @@
       <c r="U99" s="49"/>
       <c r="V99" s="49"/>
       <c r="W99" s="49"/>
-      <c r="X99" s="75" t="s">
+      <c r="X99" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="Y99" s="75"/>
+      <c r="Y99" s="77"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -9415,7 +9419,7 @@
       </c>
       <c r="Y101" s="51">
         <f>Y100/Y104</f>
-        <v>0.10420974271917441</v>
+        <v>0.10739392207382965</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9481,7 +9485,7 @@
       </c>
       <c r="Y102" s="53" cm="1">
         <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
-        <v>34001603595</v>
+        <v>32876193299</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9547,7 +9551,7 @@
       </c>
       <c r="Y103" s="51">
         <f>Y102/Y104</f>
-        <v>0.89579025728082562</v>
+        <v>0.8926060779261703</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9602,20 +9606,20 @@
       <c r="Q104" s="11">
         <v>292700000</v>
       </c>
-      <c r="R104" s="76" t="s">
+      <c r="R104" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="S104" s="76"/>
-      <c r="T104" s="76"/>
-      <c r="U104" s="76"/>
-      <c r="V104" s="76"/>
+      <c r="S104" s="78"/>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
       <c r="W104" s="49"/>
       <c r="X104" s="41" t="s">
         <v>151</v>
       </c>
       <c r="Y104" s="54">
         <f>Y100+Y102</f>
-        <v>37957103595</v>
+        <v>36831693299</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9709,10 +9713,10 @@
       <c r="W105" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="X105" s="75" t="s">
+      <c r="X105" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="Y105" s="75"/>
+      <c r="Y105" s="77"/>
     </row>
     <row r="106" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -9808,7 +9812,7 @@
       </c>
       <c r="Y106" s="56">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>7.353032445682621E-2</v>
+        <v>7.3557622797077046E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9913,7 +9917,7 @@
       <c r="U108" s="71"/>
       <c r="V108" s="59">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>26950159815.303535</v>
+        <v>26935008854.649487</v>
       </c>
       <c r="W108" s="60" t="s">
         <v>153</v>
@@ -9944,7 +9948,7 @@
       </c>
       <c r="V109" s="59">
         <f>V108+V107</f>
-        <v>28226159815.303535</v>
+        <v>28211008854.649487</v>
       </c>
       <c r="W109" s="60" t="s">
         <v>151</v>
@@ -9954,14 +9958,14 @@
       </c>
       <c r="Y109" s="25">
         <f>Y106</f>
-        <v>7.353032445682621E-2</v>
+        <v>7.3557622797077046E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
-      <c r="R110" s="74" t="s">
+      <c r="R110" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="S110" s="74"/>
+      <c r="S110" s="76"/>
       <c r="T110" s="49"/>
       <c r="U110" s="49"/>
       <c r="V110" s="49"/>
@@ -9975,7 +9979,7 @@
       </c>
       <c r="S111" s="53">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>23529271064.840714</v>
+        <v>23515891148.452084</v>
       </c>
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
@@ -10020,7 +10024,7 @@
       </c>
       <c r="S114" s="53">
         <f>S111+S112-S113</f>
-        <v>19686271064.840714</v>
+        <v>19672891148.452084</v>
       </c>
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
@@ -10050,7 +10054,7 @@
       </c>
       <c r="S116" s="65">
         <f>S114/S115</f>
-        <v>131.64477374485656</v>
+        <v>131.55530042307282</v>
       </c>
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
@@ -10065,7 +10069,7 @@
       </c>
       <c r="S117" s="66" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price")</f>
-        <v>234.45</v>
+        <v>226.69</v>
       </c>
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
@@ -10080,7 +10084,7 @@
       </c>
       <c r="S118" s="67">
         <f>S116/S117-1</f>
-        <v>-0.43849531352161841</v>
+        <v>-0.41966870870760586</v>
       </c>
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>

--- a/Technology/Software/Verisk Analytics.xlsx
+++ b/Technology/Software/Verisk Analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125B6B7-08F5-1444-AF35-148295F0C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11423D71-CB4F-1647-A261-8247AB4DDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,13 +2535,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Small + Speculative"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2558,7 +2556,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2571,8 +2569,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2699,10 +2695,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>249.26</v>
-    <v>162.94</v>
-    <v>0.85270000000000001</v>
-    <v>-1.44</v>
-    <v>-6.3119999999999999E-3</v>
+    <v>169.74</v>
+    <v>0.81699999999999995</v>
+    <v>1.3</v>
+    <v>5.385E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Verisk Analytics, Inc. is a data analytics provider that serves insurance industry. The Company offers predictive analytics and decision support solutions to customers in rating, underwriting, claims, catastrophe and weather risk, global risk analytics, and many other fields. The Company’s Insurance segment primarily serves its property and casualty (P&amp;C) insurance customers and focuses on the prediction of loss, the selection and pricing of risk, and compliance with their reporting requirements in each United States state in which the Company operate. The Company also develop and utilize machine learned and artificially intelligent models to forecast scenarios and produce both standard and customized analytics that help its customers better manage their businesses, including detecting fraud before and after a loss event and quantifying losses. It also helps businesses and governments better anticipate and manage climate and weather-related risks.</v>
     <v>7000</v>
@@ -2710,24 +2708,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>545 Washington Blvd, JERSEY CITY, NJ, 07310-1607 US</v>
-    <v>231.72499999999999</v>
+    <v>243.54</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.986526689063</v>
+    <v>45261.962899628903</v>
     <v>0</v>
-    <v>225.84</v>
-    <v>32876193299</v>
+    <v>239.77</v>
+    <v>35192590000</v>
     <v>VERISK ANALYTICS, INC.</v>
     <v>VERISK ANALYTICS, INC.</v>
-    <v>227.89</v>
-    <v>46.9861</v>
-    <v>228.13</v>
-    <v>226.69</v>
-    <v>145027100</v>
+    <v>240.61</v>
+    <v>49.1556</v>
+    <v>241.43</v>
+    <v>242.73</v>
+    <v>242.73</v>
+    <v>144986600</v>
     <v>VRSK</v>
     <v>VERISK ANALYTICS, INC. (XNAS:VRSK)</v>
-    <v>909020</v>
-    <v>940758</v>
+    <v>702401</v>
+    <v>911256</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2759,6 +2758,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2779,6 +2780,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2795,7 +2797,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2806,13 +2808,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2878,13 +2883,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2929,6 +2940,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2936,6 +2950,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3300,7 +3317,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W131" sqref="W131"/>
+      <selection pane="bottomRight" activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,15 +4423,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y102/Q3</f>
-        <v>13.166276851822186</v>
+        <v>14.093948738486183</v>
       </c>
       <c r="Y16" s="30">
         <f>Y102/Q28</f>
-        <v>34.465031239123597</v>
+        <v>36.893374567564734</v>
       </c>
       <c r="Z16" s="31">
         <f>Y102/Q107</f>
-        <v>41.917880019125334</v>
+        <v>44.87133749840622</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4608,15 +4625,15 @@
       </c>
       <c r="X19" s="30">
         <f>Y102/R3</f>
-        <v>12.354826493423525</v>
+        <v>13.22532506576475</v>
       </c>
       <c r="Y19" s="30">
         <f>Y102/R28</f>
-        <v>39.184974134684147</v>
+        <v>41.945876042908225</v>
       </c>
       <c r="Z19" s="34">
         <f>Y102/R107</f>
-        <v>33.938467326313614</v>
+        <v>36.329709920512023</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,11 +4869,11 @@
       </c>
       <c r="Y22" s="44">
         <f>(-1*Q98)/Y102</f>
-        <v>5.9374270684172375E-3</v>
+        <v>5.5466221724516443E-3</v>
       </c>
       <c r="Z22" s="37">
         <f>R107/Y102</f>
-        <v>2.946509016995788E-2</v>
+        <v>2.7525680832243379E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9027,7 +9044,7 @@
       </c>
       <c r="Y95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9093,7 +9110,7 @@
       </c>
       <c r="Y96" s="52" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>0.85270000000000001</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9224,7 +9241,7 @@
       </c>
       <c r="Y98" s="51">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>7.8922568999999998E-2</v>
+        <v>7.6443929999999993E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9419,7 +9436,7 @@
       </c>
       <c r="Y101" s="51">
         <f>Y100/Y104</f>
-        <v>0.10739392207382965</v>
+        <v>0.10103941213990261</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9485,7 +9502,7 @@
       </c>
       <c r="Y102" s="53" cm="1">
         <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
-        <v>32876193299</v>
+        <v>35192590000</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9551,7 +9568,7 @@
       </c>
       <c r="Y103" s="51">
         <f>Y102/Y104</f>
-        <v>0.8926060779261703</v>
+        <v>0.89896058786009736</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9619,7 +9636,7 @@
       </c>
       <c r="Y104" s="54">
         <f>Y100+Y102</f>
-        <v>36831693299</v>
+        <v>39148090000</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9812,7 +9829,7 @@
       </c>
       <c r="Y106" s="56">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>7.3557622797077046E-2</v>
+        <v>7.1646868469100455E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9917,7 +9934,7 @@
       <c r="U108" s="71"/>
       <c r="V108" s="59">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>26935008854.649487</v>
+        <v>28038323748.707191</v>
       </c>
       <c r="W108" s="60" t="s">
         <v>153</v>
@@ -9948,7 +9965,7 @@
       </c>
       <c r="V109" s="59">
         <f>V108+V107</f>
-        <v>28211008854.649487</v>
+        <v>29314323748.707191</v>
       </c>
       <c r="W109" s="60" t="s">
         <v>151</v>
@@ -9958,7 +9975,7 @@
       </c>
       <c r="Y109" s="25">
         <f>Y106</f>
-        <v>7.3557622797077046E-2</v>
+        <v>7.1646868469100455E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
@@ -9979,7 +9996,7 @@
       </c>
       <c r="S111" s="53">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>23515891148.452084</v>
+        <v>24490266029.437164</v>
       </c>
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
@@ -10024,7 +10041,7 @@
       </c>
       <c r="S114" s="53">
         <f>S111+S112-S113</f>
-        <v>19672891148.452084</v>
+        <v>20647266029.437164</v>
       </c>
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
@@ -10054,7 +10071,7 @@
       </c>
       <c r="S116" s="65">
         <f>S114/S115</f>
-        <v>131.55530042307282</v>
+        <v>138.07107785636452</v>
       </c>
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
@@ -10069,7 +10086,7 @@
       </c>
       <c r="S117" s="66" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price")</f>
-        <v>226.69</v>
+        <v>242.73</v>
       </c>
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
@@ -10084,7 +10101,7 @@
       </c>
       <c r="S118" s="67">
         <f>S116/S117-1</f>
-        <v>-0.41966870870760586</v>
+        <v>-0.431174235338176</v>
       </c>
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>

--- a/Technology/Software/Verisk Analytics.xlsx
+++ b/Technology/Software/Verisk Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11423D71-CB4F-1647-A261-8247AB4DDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B87BE19-9C75-1949-896A-F9DA2786BD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2537,6 +2537,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -2556,7 +2558,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2569,6 +2571,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2696,9 +2700,9 @@
     <v>Powered by Refinitiv</v>
     <v>249.26</v>
     <v>169.74</v>
-    <v>0.81699999999999995</v>
-    <v>1.3</v>
-    <v>5.385E-3</v>
+    <v>0.81869999999999998</v>
+    <v>-0.83</v>
+    <v>-3.5510000000000003E-3</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -2708,25 +2712,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>545 Washington Blvd, JERSEY CITY, NJ, 07310-1607 US</v>
-    <v>243.54</v>
+    <v>233.19</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.962899628903</v>
+    <v>45269.013409212501</v>
     <v>0</v>
-    <v>239.77</v>
-    <v>35192590000</v>
+    <v>230.18</v>
+    <v>33770278872</v>
     <v>VERISK ANALYTICS, INC.</v>
     <v>VERISK ANALYTICS, INC.</v>
-    <v>240.61</v>
-    <v>49.1556</v>
-    <v>241.43</v>
-    <v>242.73</v>
-    <v>242.73</v>
+    <v>232.36</v>
+    <v>47.591900000000003</v>
+    <v>233.75</v>
+    <v>232.92</v>
+    <v>232.92</v>
     <v>144986600</v>
     <v>VRSK</v>
     <v>VERISK ANALYTICS, INC. (XNAS:VRSK)</v>
-    <v>702401</v>
-    <v>911256</v>
+    <v>935971</v>
+    <v>843453</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3314,10 +3318,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S96" sqref="S96"/>
+      <selection pane="bottomRight" activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,15 +4427,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y102/Q3</f>
-        <v>14.093948738486183</v>
+        <v>13.52434075770925</v>
       </c>
       <c r="Y16" s="30">
         <f>Y102/Q28</f>
-        <v>36.893374567564734</v>
+        <v>35.402326105461789</v>
       </c>
       <c r="Z16" s="31">
         <f>Y102/Q107</f>
-        <v>44.87133749840622</v>
+        <v>43.057859074333798</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4625,15 +4629,15 @@
       </c>
       <c r="X19" s="30">
         <f>Y102/R3</f>
-        <v>13.22532506576475</v>
+        <v>12.690822574971815</v>
       </c>
       <c r="Y19" s="30">
         <f>Y102/R28</f>
-        <v>41.945876042908225</v>
+        <v>40.250630359952325</v>
       </c>
       <c r="Z19" s="34">
         <f>Y102/R107</f>
-        <v>36.329709920512023</v>
+        <v>34.861442006813256</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,11 +4873,11 @@
       </c>
       <c r="Y22" s="44">
         <f>(-1*Q98)/Y102</f>
-        <v>5.5466221724516443E-3</v>
+        <v>5.7802306205367599E-3</v>
       </c>
       <c r="Z22" s="37">
         <f>R107/Y102</f>
-        <v>2.7525680832243379E-2</v>
+        <v>2.8684986691157578E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9044,7 +9048,7 @@
       </c>
       <c r="Y95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9110,7 +9114,7 @@
       </c>
       <c r="Y96" s="52" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>0.81699999999999995</v>
+        <v>0.81869999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9241,7 +9245,7 @@
       </c>
       <c r="Y98" s="51">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>7.6443929999999993E-2</v>
+        <v>7.6242172999999996E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9436,7 +9440,7 @@
       </c>
       <c r="Y101" s="51">
         <f>Y100/Y104</f>
-        <v>0.10103941213990261</v>
+        <v>0.10484872992074298</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9502,7 +9506,7 @@
       </c>
       <c r="Y102" s="53" cm="1">
         <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
-        <v>35192590000</v>
+        <v>33770278872</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9568,7 +9572,7 @@
       </c>
       <c r="Y103" s="51">
         <f>Y102/Y104</f>
-        <v>0.89896058786009736</v>
+        <v>0.89515127007925699</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9636,7 +9640,7 @@
       </c>
       <c r="Y104" s="54">
         <f>Y100+Y102</f>
-        <v>39148090000</v>
+        <v>37725778872</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9829,7 +9833,7 @@
       </c>
       <c r="Y106" s="56">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>7.1646868469100455E-2</v>
+        <v>7.1285409950305037E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9934,7 +9938,7 @@
       <c r="U108" s="71"/>
       <c r="V108" s="59">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>28038323748.707191</v>
+        <v>28257284561.25256</v>
       </c>
       <c r="W108" s="60" t="s">
         <v>153</v>
@@ -9965,7 +9969,7 @@
       </c>
       <c r="V109" s="59">
         <f>V108+V107</f>
-        <v>29314323748.707191</v>
+        <v>29533284561.25256</v>
       </c>
       <c r="W109" s="60" t="s">
         <v>151</v>
@@ -9975,7 +9979,7 @@
       </c>
       <c r="Y109" s="25">
         <f>Y106</f>
-        <v>7.1646868469100455E-2</v>
+        <v>7.1285409950305037E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
@@ -9996,7 +10000,7 @@
       </c>
       <c r="S111" s="53">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>24490266029.437164</v>
+        <v>24683644684.482765</v>
       </c>
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
@@ -10041,7 +10045,7 @@
       </c>
       <c r="S114" s="53">
         <f>S111+S112-S113</f>
-        <v>20647266029.437164</v>
+        <v>20840644684.482765</v>
       </c>
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
@@ -10071,7 +10075,7 @@
       </c>
       <c r="S116" s="65">
         <f>S114/S115</f>
-        <v>138.07107785636452</v>
+        <v>139.36422723984677</v>
       </c>
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
@@ -10086,7 +10090,7 @@
       </c>
       <c r="S117" s="66" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price")</f>
-        <v>242.73</v>
+        <v>232.92</v>
       </c>
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
@@ -10101,7 +10105,7 @@
       </c>
       <c r="S118" s="67">
         <f>S116/S117-1</f>
-        <v>-0.431174235338176</v>
+        <v>-0.40166483238946082</v>
       </c>
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>
